--- a/de56/2年後期月曜4限専門入門演習/ニーズ調査 (4).xlsx
+++ b/de56/2年後期月曜4限専門入門演習/ニーズ調査 (4).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnich\mygit\xbp\de56\2年後期月曜4限専門入門演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968BBBB-21FC-4B90-BD9E-4A6E4828D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25401DA2-918D-49F8-8D72-06B36E8A63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C09DC60-CD6B-4018-83D4-DC2E51A230E9}"/>
   </bookViews>
@@ -37,34 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>質問１</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問２</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問３</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問４</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>はい</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +72,76 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち家を欲しいと思いますか</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き家を買ってみたいと思いますか</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き家を自分でDIYできるサービスはサービスとしていいと思いますか</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綺麗な状態の空き家を買うとしたらいくらまで出せますか</t>
+    <rPh sb="0" eb="2">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4787,12 +4829,12 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="60.25" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
@@ -4806,36 +4848,36 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -4858,7 +4900,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -4881,7 +4923,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>31</v>
@@ -4904,7 +4946,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
